--- a/out/report.xlsx
+++ b/out/report.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Closed contract trades</t>
+          <t>Strategy Trades</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -461,7 +461,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Contract win rate</t>
+          <t>Strategy Win Rate</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -471,7 +471,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Contract total PnL</t>
+          <t>Strategy Total PnL</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -481,99 +481,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Contract avg hold (days)</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Strategy trades</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Strategy win rate</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Strategy total PnL</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Strategy avg hold (days)</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
           <t>Verdict</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Green flag</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>symbol</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>expiry</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>contract</t>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
-        <is>
-          <t>qty_open</t>
-        </is>
-      </c>
-      <c r="E12" s="1" t="inlineStr">
-        <is>
-          <t>opened</t>
-        </is>
-      </c>
-      <c r="F12" s="1" t="inlineStr">
-        <is>
-          <t>days_open</t>
-        </is>
-      </c>
-      <c r="G12" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
         </is>
       </c>
     </row>
@@ -742,52 +655,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>symbol</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>expiry</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>contract</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>qty_open</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>opened</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>days_open</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/out/report.xlsx
+++ b/out/report.xlsx
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -539,11 +539,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>SPY</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -553,7 +553,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Options on Apple</t>
+          <t>Options on S&amp;P 500 ETF</t>
         </is>
       </c>
     </row>
@@ -616,31 +616,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>SPY</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Long Call</t>
+          <t>Short Put</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Options on Apple</t>
+          <t>Options on S&amp;P 500 ETF</t>
         </is>
       </c>
     </row>

--- a/out/report.xlsx
+++ b/out/report.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Symbols" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Strategies" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Open Positions" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Stale Capital" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,6 +489,16 @@
         <is>
           <t>Green flag</t>
         </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Fee Drag %</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3.85</v>
       </c>
     </row>
   </sheetData>
@@ -568,7 +579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,17 +610,27 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>fees</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>hold_days</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>theta_per_day</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>description</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>segments</t>
         </is>
       </c>
     </row>
@@ -626,21 +647,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Short Put</t>
+          <t>Short Call</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08333333333333333</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>600</v>
-      </c>
-      <c r="G2" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Options on S&amp;P 500 ETF</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[{'strategy_name': 'Short Call', 'pnl': 50.0, 'entry_ts': '2025-01-01T10:00:00', 'exit_ts': '2025-01-05T10:00:00'}]</t>
         </is>
       </c>
     </row>
@@ -665,4 +694,22 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/out/report.xlsx
+++ b/out/report.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -647,20 +647,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Short Call</t>
+          <t>Short Put</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="G2" t="n">
-        <v>12.5</v>
+        <v>600</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[{'strategy_name': 'Short Call', 'pnl': 50.0, 'entry_ts': '2025-01-01T10:00:00', 'exit_ts': '2025-01-05T10:00:00'}]</t>
+          <t>[{'strategy_name': 'Short Put', 'pnl': 50.0, 'entry_ts': '2025-01-01T10:00:00', 'exit_ts': '2025-01-01T12:00:00'}]</t>
         </is>
       </c>
     </row>

--- a/out/report.xlsx
+++ b/out/report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,33 +472,43 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Strategy Total PnL</t>
+          <t>Strategy Total PnL (Net)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Verdict</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Green flag</t>
-        </is>
+          <t>Strategy Total Fees</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Verdict</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Green flag</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Fee Drag %</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
+      <c r="B7" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -554,7 +564,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -579,7 +589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,25 +620,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>gross_pnl</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>fees</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>hold_days</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>theta_per_day</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>segments</t>
         </is>
@@ -651,25 +666,28 @@
         </is>
       </c>
       <c r="D2" t="n">
+        <v>48</v>
+      </c>
+      <c r="E2" t="n">
         <v>50</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
-        <v>0.08333333333333333</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>600</v>
-      </c>
-      <c r="H2" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>12</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>Options on S&amp;P 500 ETF</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>[{'strategy_name': 'Short Put', 'pnl': 50.0, 'entry_ts': '2025-01-01T10:00:00', 'exit_ts': '2025-01-01T12:00:00'}]</t>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[{'strategy_name': 'Short Put', 'pnl': 50.0, 'entry_ts': '2025-01-01T00:00:00', 'exit_ts': '2025-01-05T00:00:00'}]</t>
         </is>
       </c>
     </row>

--- a/out/report.xlsx
+++ b/out/report.xlsx
@@ -497,7 +497,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Green flag</t>
+          <t>Green Flag</t>
         </is>
       </c>
     </row>

--- a/out/report.xlsx
+++ b/out/report.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Symbols" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Strategies" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Open Positions" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Stale Capital" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,23 +472,43 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Strategy Total PnL</t>
+          <t>Strategy Total PnL (Net)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Strategy Total Fees</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>Verdict</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Green flag</t>
-        </is>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Green Flag</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Fee Drag %</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -543,7 +564,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -568,7 +589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,17 +620,32 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>gross_pnl</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>fees</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>hold_days</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>theta_per_day</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>description</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>segments</t>
         </is>
       </c>
     </row>
@@ -630,17 +666,28 @@
         </is>
       </c>
       <c r="D2" t="n">
+        <v>48</v>
+      </c>
+      <c r="E2" t="n">
         <v>50</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.08333333333333333</v>
-      </c>
       <c r="F2" t="n">
-        <v>600</v>
-      </c>
-      <c r="G2" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>12</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>Options on S&amp;P 500 ETF</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[{'strategy_name': 'Short Put', 'pnl': 50.0, 'entry_ts': '2025-01-01T00:00:00', 'exit_ts': '2025-01-05T00:00:00'}]</t>
         </is>
       </c>
     </row>
@@ -665,4 +712,22 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/out/report.xlsx
+++ b/out/report.xlsx
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -666,19 +666,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
         <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[{'strategy_name': 'Short Put', 'pnl': 50.0, 'entry_ts': '2025-01-01T00:00:00', 'exit_ts': '2025-01-05T00:00:00'}]</t>
+          <t>[{'strategy_name': 'Short Put', 'pnl': 50.0, 'entry_ts': '2025-01-01T10:00:00', 'exit_ts': '2025-01-01T12:00:00'}]</t>
         </is>
       </c>
     </row>

--- a/out/report.xlsx
+++ b/out/report.xlsx
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -497,7 +497,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Green Flag</t>
+          <t>Amber: Fee Drag &gt; 10%</t>
         </is>
       </c>
     </row>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -666,19 +666,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="E2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08333333333333333</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>600</v>
+        <v>19.5</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[{'strategy_name': 'Short Put', 'pnl': 50.0, 'entry_ts': '2025-01-01T10:00:00', 'exit_ts': '2025-01-01T12:00:00'}]</t>
+          <t>[{'strategy_name': 'Short Put', 'pnl': 100.0, 'entry_ts': '2025-01-01T10:00:00', 'exit_ts': '2025-01-05T10:00:00'}]</t>
         </is>
       </c>
     </row>

--- a/out/report.xlsx
+++ b/out/report.xlsx
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -497,7 +497,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Amber: Fee Drag &gt; 10%</t>
+          <t>Green Flag</t>
         </is>
       </c>
     </row>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -666,19 +666,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
         <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>19.5</v>
+        <v>12</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[{'strategy_name': 'Short Put', 'pnl': 100.0, 'entry_ts': '2025-01-01T10:00:00', 'exit_ts': '2025-01-05T10:00:00'}]</t>
+          <t>[{'strategy_name': 'Short Put', 'pnl': 50.0, 'entry_ts': '2025-01-01T00:00:00', 'exit_ts': '2025-01-05T00:00:00'}]</t>
         </is>
       </c>
     </row>
